--- a/Base_Datos_BlueTech.xlsx
+++ b/Base_Datos_BlueTech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1357"/>
+  <dimension ref="A1:D1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27543,6 +27543,6778 @@
         </is>
       </c>
     </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>Colores Largos Jumbo Artesco Triangulares X 12 Und</t>
+        </is>
+      </c>
+      <c r="C1358" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D1358" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>Marcadores Artesco Delgados Max- 45 X 12 Unidades</t>
+        </is>
+      </c>
+      <c r="C1359" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D1359" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>Colores Largos Artesco Triangulares X 36 Und</t>
+        </is>
+      </c>
+      <c r="C1360" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D1360" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>Marcadores Artesco Gruesos Aquamax 47 X 12 Unidades</t>
+        </is>
+      </c>
+      <c r="C1361" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="D1361" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>Marcador Faber Castell N° 45 X 6 Unidades Neón</t>
+        </is>
+      </c>
+      <c r="C1362" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>Colores Largos Faber Castell Triangulares Pastel X 10 Und</t>
+        </is>
+      </c>
+      <c r="C1363" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="D1363" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>Marcador Artesco Duo Color 47 Estuche X 6/12 Unidades</t>
+        </is>
+      </c>
+      <c r="C1364" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D1364" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>Marcador Vinifan Children 47 Estuche Zipper X 12 Unidades</t>
+        </is>
+      </c>
+      <c r="C1365" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="D1365" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>Marcador Artesco X 12 Unidades</t>
+        </is>
+      </c>
+      <c r="C1366" t="n">
+        <v>84</v>
+      </c>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>Marcador Artesco Dual Brush Básico X 6 Und</t>
+        </is>
+      </c>
+      <c r="C1367" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D1367" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>Marcador Artesco Fine Liner De Punta Sketch X 24 Und</t>
+        </is>
+      </c>
+      <c r="C1368" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1368" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>Marcadores Artesco Marcatodo Pastel X6</t>
+        </is>
+      </c>
+      <c r="C1369" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D1369" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>Marcador Artesco Outliners X6</t>
+        </is>
+      </c>
+      <c r="C1370" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="D1370" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>Colores Largos Vinifan Triangulares Pasteles Caja X 10 Und</t>
+        </is>
+      </c>
+      <c r="C1371" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>Colores Largos Ove Triangulares Tubo X 24 Und</t>
+        </is>
+      </c>
+      <c r="C1372" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="D1372" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>Témpera Ove Neón X 6 Und</t>
+        </is>
+      </c>
+      <c r="C1373" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D1373" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>Colores Largos Faber Castell Hexagonal + 6 Neón X 12 Und</t>
+        </is>
+      </c>
+      <c r="C1374" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>Colores Largos Faber Castell Hexagonal X 72 Und</t>
+        </is>
+      </c>
+      <c r="C1375" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>Colores Largos Artesco Triangulares X 60 Und</t>
+        </is>
+      </c>
+      <c r="C1376" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>Marcador Faber Castell 45 Estuche Cartón X 12 Unidades</t>
+        </is>
+      </c>
+      <c r="C1377" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1377" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>Marcador Faber Castell 45 Estuche Cartón X 20 Unidades</t>
+        </is>
+      </c>
+      <c r="C1378" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="D1378" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>Marcador Faber Castell N° 45 X 12 Unidades + 4 Neón + 2 Pastel</t>
+        </is>
+      </c>
+      <c r="C1379" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D1379" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>Rotulador Faber Castell Grip Finepen Neón X 5 Und</t>
+        </is>
+      </c>
+      <c r="C1380" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="D1380" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>Rotulador Faber Castell Grip Finepen Básico X 5 Und</t>
+        </is>
+      </c>
+      <c r="C1381" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="D1381" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>Colores Largos Jumbo Vinifan Triangulares X 12 Und</t>
+        </is>
+      </c>
+      <c r="C1382" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1383" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>Tailoy</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1384" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>Cuaderno empastado Cuadriculado 5mm Tamaño Medio Oficio TOP – 100 Hojas (Colores Varios)</t>
+        </is>
+      </c>
+      <c r="C1385" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1385" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral para Zurdos (Apertura Superior) Cuadriculado 5mm Tamaño Medio Oficio ABC – Colores Varios</t>
+        </is>
+      </c>
+      <c r="C1386" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1386" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 5mm Tamaño Medio Oficio con Margen Color Marca ABC – Colores Varios</t>
+        </is>
+      </c>
+      <c r="C1387" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1387" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 4mm Tamaño Oficio con Margen Color Marca ABC – Colores Varios</t>
+        </is>
+      </c>
+      <c r="C1388" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1388" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 4mm Tamaño Carta Marca ABC – Colores Varios</t>
+        </is>
+      </c>
+      <c r="C1389" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1389" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>Lapices de Colores hexagonales de 24 unidades marca Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1390" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1390" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>Lapices de Colores Triangulares de 12 unidades marca Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1391" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1391" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico marca Madison de 30 cm</t>
+        </is>
+      </c>
+      <c r="C1392" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1392" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico marca Pelikan 30 cm – Kit Técnico con Compás de Precisión</t>
+        </is>
+      </c>
+      <c r="C1393" t="n">
+        <v>29</v>
+      </c>
+      <c r="D1393" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico marca Maped de 30 cm – Set Clásico de 4 Piezas Rígidas</t>
+        </is>
+      </c>
+      <c r="C1394" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1394" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico marca Maped Geo Metric 30 cm – Kit Rígido y Ecológico (4 Piezas)</t>
+        </is>
+      </c>
+      <c r="C1395" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1395" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico marca Maped Incassable – 30 cm Flexible e Irrompible</t>
+        </is>
+      </c>
+      <c r="C1396" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1396" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico marca Sabonis 30 cm – Kit Técnico Completo</t>
+        </is>
+      </c>
+      <c r="C1397" t="n">
+        <v>27</v>
+      </c>
+      <c r="D1397" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico Técnico marca Keyroad 30 cm – Kit con Compás de Precisión</t>
+        </is>
+      </c>
+      <c r="C1398" t="n">
+        <v>36</v>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>Estuche Geometrico marca Keyroad Drawing Set – 30 cm de Alta Precisión (4 Piezas)</t>
+        </is>
+      </c>
+      <c r="C1399" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico marca Madison de 30 cm</t>
+        </is>
+      </c>
+      <c r="C1400" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Crayones de Cera Jumbo Cra-Z-Art – 8 Colores Brillantes para Manos Pequeñas</t>
+        </is>
+      </c>
+      <c r="C1401" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1401" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>Caja de 96 Crayones Cra-Z-Art – ¡Incluye Tajador y un Marcador Sorpresa!</t>
+        </is>
+      </c>
+      <c r="C1402" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1402" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>Crayones de Cera Cra-Z-Art – Set de 24 Colores de Calidad Escolar Superior</t>
+        </is>
+      </c>
+      <c r="C1403" t="n">
+        <v>45</v>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>Set de 8 Crayones de Cera Cra-Z-Art – Colores Clásicos y Brillantes para Preescolar</t>
+        </is>
+      </c>
+      <c r="C1404" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1404" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>Mega Set de 50 Marcadores Lavables SuperTip Cra-Z-Art – Punta Versátil para Trazos Finos y Gruesos</t>
+        </is>
+      </c>
+      <c r="C1405" t="n">
+        <v>250</v>
+      </c>
+      <c r="D1405" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>Set de 20 Marcadores Lavables Fineline Cra-Z-Art – Punta Fina de Alta Precisión</t>
+        </is>
+      </c>
+      <c r="C1406" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1406" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>Set de 10 Marcadores Lavables Cra-Z-Art – Colores Brillantes y Ultra Lavables</t>
+        </is>
+      </c>
+      <c r="C1407" t="n">
+        <v>48</v>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>Set de 8 Marcadores Lavables Cra-Z-Art – Colores Vibrantes y Fácil Limpieza</t>
+        </is>
+      </c>
+      <c r="C1408" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1408" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>Set de 24 Lápices de Colores Retráctiles Cra-Z-Art Twist-up – Gran Variedad de Colores</t>
+        </is>
+      </c>
+      <c r="C1409" t="n">
+        <v>95</v>
+      </c>
+      <c r="D1409" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>Set de 15 Lápices de Colores Borrables Cra-Z-Art – 12 Colores + 3 Bonus de Regalo</t>
+        </is>
+      </c>
+      <c r="C1410" t="n">
+        <v>56</v>
+      </c>
+      <c r="D1410" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>Mega Set de 72 Lápices de Colores Cra-Z-Art</t>
+        </is>
+      </c>
+      <c r="C1411" t="n">
+        <v>185</v>
+      </c>
+      <c r="D1411" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>Set de 36 Lápices de Colores Cra-Z-Art – Paleta Profesional de Colores Brillantes</t>
+        </is>
+      </c>
+      <c r="C1412" t="n">
+        <v>83</v>
+      </c>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>Set de 24 Lápices de Colores Cra-Z-Art – Gama Ampliada de Colores Brillantes</t>
+        </is>
+      </c>
+      <c r="C1413" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1413" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>Set de 12 Lápices de Colores Cra-Z-Art – Colores Brillantes</t>
+        </is>
+      </c>
+      <c r="C1414" t="n">
+        <v>30</v>
+      </c>
+      <c r="D1414" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>Set de 12 EcoLápices de Colores Jumbo Triangulares Faber-Castell + 2 Ecolápices</t>
+        </is>
+      </c>
+      <c r="C1415" t="n">
+        <v>68</v>
+      </c>
+      <c r="D1415" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>Crayola Colored Pencils 24, Colores del Mundo, Tonos de Piel Lápices de Colores</t>
+        </is>
+      </c>
+      <c r="C1416" t="n">
+        <v>98</v>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>Colores Dinosaurio Faber Castell x 12+2 Efecto Multicolor</t>
+        </is>
+      </c>
+      <c r="C1417" t="n">
+        <v>42</v>
+      </c>
+      <c r="D1417" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>Colores Unicornio Faber Castell x 12+2 Efecto Multicolor</t>
+        </is>
+      </c>
+      <c r="C1418" t="n">
+        <v>42</v>
+      </c>
+      <c r="D1418" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>Set de Papelería Stitch Disney – Kit Escolar y de Oficina con Libreta y Accesorios</t>
+        </is>
+      </c>
+      <c r="C1419" t="n">
+        <v>159</v>
+      </c>
+      <c r="D1419" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>Maleta Kit de Colorear Carioca Color &amp; Play Planet 48 Piezas</t>
+        </is>
+      </c>
+      <c r="C1420" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1420" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>Maleta Kit de Dibujo Carioca Planet con 48 Marcadores y 12 Lápices</t>
+        </is>
+      </c>
+      <c r="C1421" t="n">
+        <v>95</v>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>Maleta Set de Arte Carioca para Niños 84 Piezas | Premium Fun Kit</t>
+        </is>
+      </c>
+      <c r="C1422" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>Agenda Harry Potter 2026 con espiral doble, con elástico  dorado, tamaño 20 x 14 cm Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1423" t="n">
+        <v>390</v>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>Agenda Stitch 2026 con espiral doble, con elástico azul, tamaño 20 x 14 cm Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1424" t="n">
+        <v>390</v>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>Marcadores Super Tips, Punta cónica , Lavables con 150 unidades Marca Crayola</t>
+        </is>
+      </c>
+      <c r="C1425" t="n">
+        <v>695</v>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>Mesa de Luz o Tablero LED para Calcar Con Pantalla Táctil Inteligente Tamaño 29.70 x 21 cm</t>
+        </is>
+      </c>
+      <c r="C1426" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>Mesa de Luz o Tablero LED para Calcar Con Pantalla Táctil Inteligente Tamaño 33.50 x 23.50 cm</t>
+        </is>
+      </c>
+      <c r="C1427" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>Cuaderno, Libreta, Notas tapa dura A5 hojas rayado Snoopy Modelo 1 con elástico Color Rojo Notes Mooving</t>
+        </is>
+      </c>
+      <c r="C1428" t="n">
+        <v>113</v>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>Cuaderno, Libreta, Notas tapa dura A5 hojas rayado Snoopy Modelo 2 con elástico Color Rosado Notes Mooving</t>
+        </is>
+      </c>
+      <c r="C1429" t="n">
+        <v>113</v>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>Cuaderno, Libreta, Notas tapa dura A5 hojas rayado Stitch Modelo 2 con elástico Color Celeste Notes Mooving</t>
+        </is>
+      </c>
+      <c r="C1430" t="n">
+        <v>113</v>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>Cuaderno, Libreta, Notas tapa dura A5 hojas rayado Stitch Modelo 1 con elástico Color Rosado Notes Mooving</t>
+        </is>
+      </c>
+      <c r="C1431" t="n">
+        <v>113</v>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Snoopy, tamaño carta con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1432" t="n">
+        <v>305</v>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Snoopy Modelo 2, tamaño A5 con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1433" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Stitch Modelo 2, tamaño A5 con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1434" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Stitch, tamaño carta con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1435" t="n">
+        <v>305</v>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>Plastilina Escolar Colores Neón 10 colores Marca Pelikan</t>
+        </is>
+      </c>
+      <c r="C1436" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>Plastilina Escolar 10 unidades Colores Pasteles Marca Pelikan</t>
+        </is>
+      </c>
+      <c r="C1437" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>Plastilina Jumbo escolar de 12 unidades Marca Mango</t>
+        </is>
+      </c>
+      <c r="C1438" t="n">
+        <v>35</v>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Harry Potter 2 con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1439" t="n">
+        <v>125</v>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>Cartuchera Box PWR Lila con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1440" t="n">
+        <v>90</v>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Quitapesares Cool Grils con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1441" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Batman 2 con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1442" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Marvel 3 con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1443" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Marvel 2 con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1444" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Marvel con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1445" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Hello Kitty con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1446" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Cartuchera Box  Superman con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1447" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>Cartuchera Box GRL PWR con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1448" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Spider Man con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1449" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Mickey and Friends con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1450" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Snoopy con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1451" t="n">
+        <v>115</v>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>Cartuchera Box Harry Potter con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1452" t="n">
+        <v>125</v>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>Cartuchera Box  Stitch con relieve, con elastico de compartimiento 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1453" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>Estuchera Tubo Minnie Mouse 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1454" t="n">
+        <v>72</v>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>Estuchera Tubo Harry Potter Color Rojo 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1455" t="n">
+        <v>90</v>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>Estuchera Tubo Snoopy 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1456" t="n">
+        <v>92</v>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>Estuchera Tubo Quitapesares Diseño Argentino 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1457" t="n">
+        <v>70</v>
+      </c>
+      <c r="D1457" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>Estuchera Tubo Harry Potter 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1458" t="n">
+        <v>90</v>
+      </c>
+      <c r="D1458" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>Estuchera Tubo Mickeys y sus amigos 1 cierre Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1459" t="n">
+        <v>95</v>
+      </c>
+      <c r="D1459" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>Mochila Grande Negro 1818 Juvenil  Porta Laptop de hasta 15″</t>
+        </is>
+      </c>
+      <c r="C1460" t="n">
+        <v>455</v>
+      </c>
+      <c r="D1460" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>Mochila Chenson Grande 1818 Juvenil para mujer Porta Laptop de hasta 15″</t>
+        </is>
+      </c>
+      <c r="C1461" t="n">
+        <v>396</v>
+      </c>
+      <c r="D1461" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1462" t="inlineStr">
+        <is>
+          <t>Mochila Grande 1818 Juvenil para mujer Happy Girls  Porta Laptop de hasta 15″</t>
+        </is>
+      </c>
+      <c r="C1462" t="n">
+        <v>380</v>
+      </c>
+      <c r="D1462" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1463" t="inlineStr">
+        <is>
+          <t>Mochila Grande Juvenil para mujer Take me Black Porta Laptop de hasta 15″ Chenson</t>
+        </is>
+      </c>
+      <c r="C1463" t="n">
+        <v>540</v>
+      </c>
+      <c r="D1463" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr">
+        <is>
+          <t>Mochila Grande Rosa 1818 Juvenil AMIB para mujer Porta Laptop de hasta 15″</t>
+        </is>
+      </c>
+      <c r="C1464" t="n">
+        <v>410</v>
+      </c>
+      <c r="D1464" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1465" t="inlineStr">
+        <is>
+          <t>Mochila Grande Happy Girl, 5 años de Garantía, Marca Chenson</t>
+        </is>
+      </c>
+      <c r="C1465" t="n">
+        <v>492</v>
+      </c>
+      <c r="D1465" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1466" t="inlineStr">
+        <is>
+          <t>Mochila Grande Dinosaurio, 5 años de Garantía, Marca Chenson</t>
+        </is>
+      </c>
+      <c r="C1466" t="n">
+        <v>474</v>
+      </c>
+      <c r="D1466" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1467" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas,  Hello Kitty  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1467" t="n">
+        <v>190</v>
+      </c>
+      <c r="D1467" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1468" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Corderoy  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1468" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1468" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1469" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Harry Potter Cafe Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1469" t="n">
+        <v>220</v>
+      </c>
+      <c r="D1469" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, GRL PWR  Holografico- Quitapesares Girls Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1470" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1471" t="inlineStr">
+        <is>
+          <t>Estuchera de 2 Pisos con 2 Cierre con Relieve, Living The Dream – holografico- Quitapesares Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1471" t="n">
+        <v>205</v>
+      </c>
+      <c r="D1471" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1472" t="inlineStr">
+        <is>
+          <t>Estuchera de 1 piso con 1 Cierre con relive, Gatito Quitapesares Girls – holografico – color Rosa Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1472" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1472" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>Estuchera de 2 Pisos con 2 Cierre con Relieve, Stitch Rosa Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1473" t="n">
+        <v>176</v>
+      </c>
+      <c r="D1473" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1474" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas,  Spider Man Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1474" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1474" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Pusheen  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1475" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1475" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Hello Kitty Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1476" t="n">
+        <v>198</v>
+      </c>
+      <c r="D1476" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno,  DC  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1477" t="n">
+        <v>215</v>
+      </c>
+      <c r="D1477" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Stitch  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1478" t="n">
+        <v>205</v>
+      </c>
+      <c r="D1478" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Snoopy color rojo Disneys  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1479" t="n">
+        <v>220</v>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1480" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Marvel Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1480" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1480" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1481" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Modelo 2 Stitch Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1481" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1481" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1482" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Rocker Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1482" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1482" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1483" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Minecraft Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1483" t="n">
+        <v>165</v>
+      </c>
+      <c r="D1483" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1484" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Rocker Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1484" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1484" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1485" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Spider Man Negro Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1485" t="n">
+        <v>275</v>
+      </c>
+      <c r="D1485" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1486" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas,  Flash Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1486" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1486" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas,  Play Station Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1487" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1487" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1488" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Pusheen Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1488" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1488" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1489" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Modelo 2 Harry Potter Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1489" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1489" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1490" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas Modelo 2 Batman Color Negro y Amarillo  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1490" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1490" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Play Station  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1491" t="n">
+        <v>270</v>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Marvel Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1492" t="n">
+        <v>270</v>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Stitch Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1493" t="n">
+        <v>298</v>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Superman Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1494" t="n">
+        <v>250</v>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Looney Tunes Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1495" t="n">
+        <v>265</v>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Quitapesares Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1496" t="n">
+        <v>265</v>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Batman Modelo 2 Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1497" t="n">
+        <v>250</v>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Pusheen Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1498" t="n">
+        <v>285</v>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Harry Potter Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1499" t="n">
+        <v>280</v>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas,  Mickey Mouse Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1500" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas,  Minnie Mouse Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1501" t="n">
+        <v>275</v>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Hello Kitty Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1502" t="n">
+        <v>250</v>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>Estuchera de Tela 1 Cierre Slim Stitch con broche magnético Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1503" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>Estuchera de Tela 1 Cierre Slim Minnie Mouse con broche magnético  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1504" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>Estuchera de Tela 1 Cierre Slim Hello Kitty con broche magnético  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1505" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>Estuchera de Tela 1 Cierre Slim Snoopy con broche magnético  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1506" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1507" t="inlineStr">
+        <is>
+          <t>Estuchera de tela de 3 Cierre de Color Liso Verde Petroleo Marca Sabonis</t>
+        </is>
+      </c>
+      <c r="C1507" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1507" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1508" t="inlineStr">
+        <is>
+          <t>Estuchera de tela de 3 Cierre de Color Liso Amarillo Marca Sabonis</t>
+        </is>
+      </c>
+      <c r="C1508" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1508" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1509" t="inlineStr">
+        <is>
+          <t>Folder Acordeón con broche de 100 años de Disneys – Campanita- con 12 Divisiones Tamaño Oficio Marca Primavera</t>
+        </is>
+      </c>
+      <c r="C1509" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1509" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>Folder Acordeón con broche de 100 años de Disneys – Mickeys Mouse – con 12 Divisiones Tamaño Oficio Marca Primavera</t>
+        </is>
+      </c>
+      <c r="C1510" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1510" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1511" t="inlineStr">
+        <is>
+          <t>Marcadores Lavables 10 colores kindness Marca Crayola</t>
+        </is>
+      </c>
+      <c r="C1511" t="n">
+        <v>52</v>
+      </c>
+      <c r="D1511" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1512" t="inlineStr">
+        <is>
+          <t>Lápices de Colores 12 unidades Kindness Marca Crayola</t>
+        </is>
+      </c>
+      <c r="C1512" t="n">
+        <v>53</v>
+      </c>
+      <c r="D1512" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1513" t="inlineStr">
+        <is>
+          <t>Marcadores Lavables 40 Colores the Big Marca Crayola</t>
+        </is>
+      </c>
+      <c r="C1513" t="n">
+        <v>385</v>
+      </c>
+      <c r="D1513" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>Marcadores Super Tips 20 unidades Color Pasteles Marca Crayola</t>
+        </is>
+      </c>
+      <c r="C1514" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1514" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia Stitch 2025 Disneys color Rosa con Celeste Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1515" t="n">
+        <v>588</v>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1516" t="inlineStr">
+        <is>
+          <t>Mochila Pusheen Aqua 2025  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1516" t="n">
+        <v>637</v>
+      </c>
+      <c r="D1516" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1517" t="inlineStr">
+        <is>
+          <t>Mochila Baires Girl Power 2025  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1517" t="n">
+        <v>528</v>
+      </c>
+      <c r="D1517" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia Mickey Mouse – Core 2025 Disneys color Azul Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1518" t="n">
+        <v>598</v>
+      </c>
+      <c r="D1518" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1519" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia Harry Potter 2025 Disneys color negro Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1519" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1519" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1520" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia  Mickey Mouse y sus amigos  Watercolor 2025 Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1520" t="n">
+        <v>572</v>
+      </c>
+      <c r="D1520" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1521" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia Batman 2025 Tamaño Oficio Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1521" t="n">
+        <v>546</v>
+      </c>
+      <c r="D1521" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1522" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia Super Man 2025  Tamaño Oficio Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1522" t="n">
+        <v>590</v>
+      </c>
+      <c r="D1522" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1523" t="inlineStr">
+        <is>
+          <t>Lápices de Colores 72 Unidades Envase en Lata Marca Staedtler</t>
+        </is>
+      </c>
+      <c r="C1523" t="n">
+        <v>250</v>
+      </c>
+      <c r="D1523" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1524" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente Mystic Glow, Tamaño Grande 29 cm x 23cm, con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1524" t="n">
+        <v>373</v>
+      </c>
+      <c r="D1524" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1525" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente Bt Dream, Tamaño Medio 29 cm x 23 cm, con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1525" t="n">
+        <v>483</v>
+      </c>
+      <c r="D1525" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1526" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente Ultraviolet By Yasmin Galvao, Tamaño Grande 29 cm x 23cm, con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1526" t="n">
+        <v>408</v>
+      </c>
+      <c r="D1526" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1527" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente By Luara Aurora, Tamaño Grande 29 cm x 23cm, con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1527" t="n">
+        <v>467</v>
+      </c>
+      <c r="D1527" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1528" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente By Luara Maldives, Tamaño Medio 25.50 cm x 20cm, con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1528" t="n">
+        <v>333</v>
+      </c>
+      <c r="D1528" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1529" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente Bt Dream, Tamaño Medio 25.50 cm x 20cm, con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1529" t="n">
+        <v>421</v>
+      </c>
+      <c r="D1529" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1530" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente Bt House, Tamaño Medio 25.50 cm x 20cm, con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1530" t="n">
+        <v>421</v>
+      </c>
+      <c r="D1530" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1531" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente Color Rojo, tamaño A5 con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1531" t="n">
+        <v>269</v>
+      </c>
+      <c r="D1531" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1532" t="inlineStr">
+        <is>
+          <t>Cuaderno Inteligente Mapa Mundi Rosa, tamaño A5 con 80 hojas de 90 gramos con elástico</t>
+        </is>
+      </c>
+      <c r="C1532" t="n">
+        <v>225</v>
+      </c>
+      <c r="D1532" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1533" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Mickeys Mouse Modelo 2, tamaño carta con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1533" t="n">
+        <v>310</v>
+      </c>
+      <c r="D1533" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1534" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Mickeys Mouse, tamaño carta con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1534" t="n">
+        <v>310</v>
+      </c>
+      <c r="D1534" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Live your color, tamaño carta con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1535" t="n">
+        <v>301</v>
+      </c>
+      <c r="D1535" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Love, tamaño A5 con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1536" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1536" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Stitch, tamaño A5 con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1537" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1537" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Snoopy, tamaño A5 con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1538" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Minnie Mouse, tamaño A5 con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>242</v>
+      </c>
+      <c r="D1539" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Mickeys Mouse, tamaño A5 con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>242</v>
+      </c>
+      <c r="D1540" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Harry Potter, tamaño A5 con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>242</v>
+      </c>
+      <c r="D1541" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>Cuaderno, Libreta, Notas tapa dura A5 hojas rayado Harry Potter modelo 3 con elástico Notes Mooving</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>110</v>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>Agenda Snoopy 2026 Tapa bordada, con espiral doble, con elástico Negro, tamaño 20 x 14 cm Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>398</v>
+      </c>
+      <c r="D1543" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>Agenda Pusheen 2026 con espiral doble, con elástico lila, tamaño 20 x 14 cm Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>360</v>
+      </c>
+      <c r="D1544" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>Globo Terráqueo con soporte Metálico Plateado y Negro de 25 cm diametro</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>630</v>
+      </c>
+      <c r="D1545" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>Globo Terráqueo con soporte Metálico Plateado y Negro de 20 cm diametro</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>510</v>
+      </c>
+      <c r="D1546" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>Globo Terráqueo con soporte Metálico Dorado y Negro con 360° grados giratorio de 20 cm diametro</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>610</v>
+      </c>
+      <c r="D1547" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>Globo Terráqueo con soporte Metálico Dorado y Negro con 360° grados giratorio de 25 cm diametro</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>710</v>
+      </c>
+      <c r="D1548" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño LOL de Alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1549" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño Bebes Llorones de Alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1550" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño Capitan America Modelo 2 de alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño Unicornio de Alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1552" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño Paw Patrol de alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1553" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño Dragon Ball Z de alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1554" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño Toy Story de Alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1555" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño Capitan America Modelo 1 de alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1556" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>Mochila + Lonchera + Estuchera para Nivel Inicial 3 en 1 Diseño Frozen de alto Relieve</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1557" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>Estuche de Tela de Set de 168 Colores Rotuladores Acuarelables Dual Tip Brush Pens – Punta Pincel y Ultra Fina 0.4mm</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>350</v>
+      </c>
+      <c r="D1558" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>Estuche de Tela de Set de 120 Colores Rotuladores Acuarelables Dual Tip Brush Pens – Punta Pincel y Ultra Fina 0.4mm</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1559" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>Sello Rotativo + Almohadilla para papel Love – 12 motivos en 1 – Marca Ibi Craft</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>59</v>
+      </c>
+      <c r="D1560" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>Sello Rotativo + Almohadilla para papel Bullet – 12 motivos en 1 – Marca Ibi Craft</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>59</v>
+      </c>
+      <c r="D1561" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>Estuchera de Tela 1 Cierre Slim Stitch Disneys  con Broche Magnético  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1562" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>Estuchera de Tela 1 Cierre Slim Mickey Mouse con Broche Magnético  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>120</v>
+      </c>
+      <c r="D1563" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>Estuchera de Tela 1 Cierre Slim Rosa 2024 con broche magnético  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>95</v>
+      </c>
+      <c r="D1564" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>Folder Acordeón con broche de 100 años de Disneys – Avengers – con 12 Divisiones Tamaño Oficio Marca Primavera</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1565" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>Folder Acordeón con broche de 100 años de Disneys – Cars – con 12 Divisiones Tamaño Oficio Marca Primavera</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1566" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>Folder Acordeón con broche de 100 años de Disneys – Frozen – con 12 Divisiones Tamaño Oficio Marca Primavera</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1567" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>Folder Acordeón con broche de 100 años de Disneys – Pooh – con 12 Divisiones Tamaño Oficio Marca Primavera</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1568" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>Folder Acordeón con broche de 100 años de Disneys – Princesas – con 12 Divisiones Tamaño Oficio Marca Primavera</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1569" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>Folder Acordeón con broche de100 años de Disneys -Deisy- con 12 Divisiones Tamaño Oficio Marca Primavera</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1570" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Marvel  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>160</v>
+      </c>
+      <c r="D1571" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Batman DC  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>155</v>
+      </c>
+      <c r="D1572" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Minnie mouse Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1573" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Star Wars   Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>145</v>
+      </c>
+      <c r="D1574" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, 100 años de Disneys Girls Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>140</v>
+      </c>
+      <c r="D1575" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Play Station  color Azul Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1576" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Trend de tela 1 Cierre, Compartimiento y Elástico interno, Fly Free – Quitapesares Girls Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>155</v>
+      </c>
+      <c r="D1577" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>Estuchera de 1 piso con 1 Cierre con relive,  Jurassic World  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>95</v>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>Estuchera de 1 piso con 1 Cierre con relive, Star Wars Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>95</v>
+      </c>
+      <c r="D1579" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>Estuchera de 1 piso con 1 Cierre con relive, Quitapesares Girls – holografico – color fuscia Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>110</v>
+      </c>
+      <c r="D1580" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>Estuchera de 2 Pisos con 2 Cierre con Relieve I love my planet – holografico- Quitapesares Girls Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>205</v>
+      </c>
+      <c r="D1581" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>Estuchera de 2 Pisos con 2 Cierre con Relieve,Harry Potter  color azul Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>138</v>
+      </c>
+      <c r="D1582" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Stitch Disneys Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1583" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Batman Color Negro y Rojo  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1584" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>Estuchera de 1 Cierre  Superman, Flash y Batman – Marvel DC Azul 2024 Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>135</v>
+      </c>
+      <c r="D1585" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Eva de 1 Cierre, Compartimiento y Ligas, Harry Potter – Hogwarts  Azul 2024 Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1586" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Batman Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1587" t="n">
+        <v>250</v>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>Cartuchera o Estuchera Doble Eva con 2 Cierre, Compartimientos y ligas, Flash  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1588" t="n">
+        <v>250</v>
+      </c>
+      <c r="D1588" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia  Mickey Mouse – Sky  Disneys color Azul Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1589" t="n">
+        <v>570</v>
+      </c>
+      <c r="D1589" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia Harry Potter 2024 Disneys color Rojo Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1590" t="n">
+        <v>494</v>
+      </c>
+      <c r="D1590" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia Harry Potter Disneys color negro Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1591" t="n">
+        <v>505</v>
+      </c>
+      <c r="D1591" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>Mochila con Licencia Minnie Mouse  Disneys color Rosa  Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1592" t="n">
+        <v>420</v>
+      </c>
+      <c r="D1592" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>Set de 8 Colores Marcador de Tiza Liquida Metálico – Chalk Marker PWE-5M  (1.8 -2.5mm) marca uni – POSCA</t>
+        </is>
+      </c>
+      <c r="C1593" t="n">
+        <v>120</v>
+      </c>
+      <c r="D1593" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>Set de 8 Colores Marcador Artístico a base de agua PC-3M (0.9 -1.3mm) marca uni – POSCA</t>
+        </is>
+      </c>
+      <c r="C1594" t="n">
+        <v>168</v>
+      </c>
+      <c r="D1594" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>Set de 16 Colores Marcador Artístico a base de agua PC-3M (0.9 -1.3mm) marca uni – POSCA</t>
+        </is>
+      </c>
+      <c r="C1595" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1595" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>Set de 16 Colores Marcador Artístico a base de agua PC-5M (1.8 -2.5mm) marca uni – POSCA</t>
+        </is>
+      </c>
+      <c r="C1596" t="n">
+        <v>350</v>
+      </c>
+      <c r="D1596" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>Globo Terráqueo Acrílico PVC  con soporte de 25 diametro</t>
+        </is>
+      </c>
+      <c r="C1597" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1597" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>Pliego de Cartulina Duplex 300 grs (0.77 x 1.10 mts)</t>
+        </is>
+      </c>
+      <c r="C1598" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1598" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>Globo Terráqueo Acrílico color Celeste Pastel PVC con soporte metálico color Blanco  de 20 cm diámetro</t>
+        </is>
+      </c>
+      <c r="C1599" t="n">
+        <v>360</v>
+      </c>
+      <c r="D1599" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>Globo Terráqueo Acrílico color Rosa Pastel PVC  con soporte metálico color Blanco  de 20 cm diámetro</t>
+        </is>
+      </c>
+      <c r="C1600" t="n">
+        <v>360</v>
+      </c>
+      <c r="D1600" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>Folder con Elástico Oficio Amarillo Pastel 2cm de ancho marca Dello</t>
+        </is>
+      </c>
+      <c r="C1601" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1601" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>Folder con Elástico Secrets Rosado 2cm ancho marca Dello</t>
+        </is>
+      </c>
+      <c r="C1602" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1602" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>Folder con Elástico Secrets Dorado Color Dorado 2cm marca Dello</t>
+        </is>
+      </c>
+      <c r="C1603" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1603" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>Globo Terráqueo Acrílico PVC  con soporte de 32 diametro</t>
+        </is>
+      </c>
+      <c r="C1604" t="n">
+        <v>390</v>
+      </c>
+      <c r="D1604" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>Set 6 Anillo de unión tamaño A4  de colores, reutilizable de plástico bucle para hoja suelta por 6 unidad</t>
+        </is>
+      </c>
+      <c r="C1605" t="n">
+        <v>37</v>
+      </c>
+      <c r="D1605" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>Set 3 Anillo de unión tamaño A4  de colores, reutilizable de plástico bucle para hoja suelta x 3 unidades</t>
+        </is>
+      </c>
+      <c r="C1606" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1606" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>Perforadora de cartulina y papel para Bijouteria de 2 pulgadas marca Kamei</t>
+        </is>
+      </c>
+      <c r="C1607" t="n">
+        <v>126</v>
+      </c>
+      <c r="D1607" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>Anillo de unión tamaño A4  de colores, reutilizable de plástico bucle para hoja suelta por unidad</t>
+        </is>
+      </c>
+      <c r="C1608" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1608" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>Borrador Blanco Artesco 4 cm x 2 cm x 1 cm</t>
+        </is>
+      </c>
+      <c r="C1609" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1609" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>Pizarra Acrílica doble cara con marco de aluminio medidas 40 x 30cm + 1 Marcador +2 imán pequeño</t>
+        </is>
+      </c>
+      <c r="C1610" t="n">
+        <v>55</v>
+      </c>
+      <c r="D1610" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>Pizarra Acrílica doble cara con marco de aluminio medidas 20x 30 cm + 1 Marcador +2 imán pequeño</t>
+        </is>
+      </c>
+      <c r="C1611" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1611" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>Cuaderno espiral cuadriculado 5mm Tamaño Carta con margen rojo Color  Marca ABC</t>
+        </is>
+      </c>
+      <c r="C1612" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1612" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>Cuaderno de espiral ancho disco (Port ring) cuadriculado tamaño A4  150 Hojas modelo Love your life marca Arpia</t>
+        </is>
+      </c>
+      <c r="C1613" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1613" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>Cuaderno de espiral ancho disco (Port ring) cuadriculado A4  150 Hojas modelo need space marca Arpia</t>
+        </is>
+      </c>
+      <c r="C1614" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>Cuaderno de espiral ancho disco (Port ring) cuadriculado modelo more you tamaño A4  150 Hojas  marca Arpia</t>
+        </is>
+      </c>
+      <c r="C1615" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>Cuaderno de espiral ancho disco (Port ring) cuadriculado tamaño A4  150 Hojas modelo love you lots marca Arpia</t>
+        </is>
+      </c>
+      <c r="C1616" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>Cuaderno de espiral ancho disco (Port ring) cuadriculado tamaño A4  150 Hojas  modelo flamengo marca Arpia</t>
+        </is>
+      </c>
+      <c r="C1617" t="n">
+        <v>80</v>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>Washi tape, cinta decorativa de Harry Potter de 3 unidades 1.5cm  x 3 metros marca mooving</t>
+        </is>
+      </c>
+      <c r="C1618" t="n">
+        <v>38</v>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>Binder clips 25mm Harry Potter de 6 unidades marca mooving</t>
+        </is>
+      </c>
+      <c r="C1619" t="n">
+        <v>34</v>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>Libreta, Cuaderno Casa Hufflepuff Harry Potter hojas rayadas 32 hojas Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1620" t="n">
+        <v>42</v>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>Sobre Mesh A5 Harry Potter casa Slytherin  marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1621" t="n">
+        <v>68</v>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>Sobre Mesh A5 Harry Potter casa Ravenclaw marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1622" t="n">
+        <v>68</v>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>Sobre Mesh A5 Harry Potter casa Hufflepuff marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1623" t="n">
+        <v>68</v>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Imperfect Beauty, tamaño carta con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1624" t="n">
+        <v>301</v>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>Cuaderno de Disco Harry Potter, tamaño carta con 80 hojas de 90 gramos Loop Mooving</t>
+        </is>
+      </c>
+      <c r="C1625" t="n">
+        <v>310</v>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>Cuaderno de Espiral Ancho Disco Port Ring Cuadriculado Sin prisa pero sin pausa A5 Tamaño 18 x 21 cm  Marca Online</t>
+        </is>
+      </c>
+      <c r="C1626" t="n">
+        <v>57</v>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>Cuaderno de Espiral Ancho Disco Port Ring Cuadriculado Iam Creative A5 Tamaño 18 x 21 cm  Marca Conline</t>
+        </is>
+      </c>
+      <c r="C1627" t="n">
+        <v>57</v>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>Sellos Alfabéticos de 70 piezas en cajita de madera</t>
+        </is>
+      </c>
+      <c r="C1628" t="n">
+        <v>136</v>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico 30 cm color pastel Lila Marca Artesco</t>
+        </is>
+      </c>
+      <c r="C1629" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico 30 cm color pastel Rosado Marca Artesco</t>
+        </is>
+      </c>
+      <c r="C1630" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>Estuche Geométrico 30 cm color pastel Celeste Marca Artesco</t>
+        </is>
+      </c>
+      <c r="C1631" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>Lápices de Colores Acuarelables 60 Colores Ecolápices  Faber-Castell</t>
+        </is>
+      </c>
+      <c r="C1632" t="n">
+        <v>245</v>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>Compás Metálico Técnico de Precisión + Extensor  Color Rojo Keyroad</t>
+        </is>
+      </c>
+      <c r="C1633" t="n">
+        <v>84</v>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>Compás Metálico Técnico de Precisión + Extensor  Color Azul Keyroad</t>
+        </is>
+      </c>
+      <c r="C1634" t="n">
+        <v>84</v>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>Compás Metálico con lápiz con estuche geómetrico  color Rosado Keyroad</t>
+        </is>
+      </c>
+      <c r="C1635" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>Compás Metálico con lápiz con estuche geometrico  color Azul Keyroad</t>
+        </is>
+      </c>
+      <c r="C1636" t="n">
+        <v>64</v>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>Compás Plástico con lápiz color Rosa con Amarillo Keyroad</t>
+        </is>
+      </c>
+      <c r="C1637" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>Compás Metal Fast Track de Precisión marca Keyroad</t>
+        </is>
+      </c>
+      <c r="C1638" t="n">
+        <v>56</v>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>Compás Plástico con lápiz color Azul con Verde Keyroad</t>
+        </is>
+      </c>
+      <c r="C1639" t="n">
+        <v>16</v>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>Set Rotulador de 48 Colores Plus Pen 3000 marca Monami</t>
+        </is>
+      </c>
+      <c r="C1640" t="n">
+        <v>198</v>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>Set Rotulador de 36 Colores Plus Pen 3000 marca Monami</t>
+        </is>
+      </c>
+      <c r="C1641" t="n">
+        <v>150</v>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>Set Rotulador de 24 Colores Plus Pen 3000 marca Monami</t>
+        </is>
+      </c>
+      <c r="C1642" t="n">
+        <v>100</v>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>Lápices de Colores Hexagonal -12 unidades Swans ARTY Stabilo</t>
+        </is>
+      </c>
+      <c r="C1643" t="n">
+        <v>89</v>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>Perforador Metalico de 4 orificio para Sistema de Encuadernación de Disco Color Verde pastel</t>
+        </is>
+      </c>
+      <c r="C1644" t="n">
+        <v>216</v>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>Perforador Metalico de 4 orificio para Sistema de Encuadernación de Disco Color Rosa</t>
+        </is>
+      </c>
+      <c r="C1645" t="n">
+        <v>216</v>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>Marcador Punta Pincel Metalizado Plateado1.6mm Marca Staedtler</t>
+        </is>
+      </c>
+      <c r="C1646" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>Marcadores Jumbo de Tinta de Agua 12 colores Sabonis</t>
+        </is>
+      </c>
+      <c r="C1647" t="n">
+        <v>62</v>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>Pintura al Dedo 6 Colores cada botecito contiene 25ml  Marca Pelikan</t>
+        </is>
+      </c>
+      <c r="C1648" t="n">
+        <v>43</v>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>Maletín o Juego de 100 piezas Colorpep´s Maped</t>
+        </is>
+      </c>
+      <c r="C1649" t="n">
+        <v>285</v>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>Set Rotulador Aerógrafo Básico 5 años a + Maped Creativ</t>
+        </is>
+      </c>
+      <c r="C1650" t="n">
+        <v>70</v>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>Lápices de Colores SuperSoft 100 Unidades Faber-Castell</t>
+        </is>
+      </c>
+      <c r="C1651" t="n">
+        <v>330</v>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Plata</t>
+        </is>
+      </c>
+      <c r="C1652" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Gris</t>
+        </is>
+      </c>
+      <c r="C1653" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Bronce</t>
+        </is>
+      </c>
+      <c r="C1654" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Blanco</t>
+        </is>
+      </c>
+      <c r="C1655" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Violeta</t>
+        </is>
+      </c>
+      <c r="C1656" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Dorado</t>
+        </is>
+      </c>
+      <c r="C1657" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Negro</t>
+        </is>
+      </c>
+      <c r="C1658" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Verde Claro</t>
+        </is>
+      </c>
+      <c r="C1659" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>Marcador Artistico uni – POSCA PC-5M Color Rojo</t>
+        </is>
+      </c>
+      <c r="C1660" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>Set de 8 Colores Marcador Artístico a base de agua PC-5M (1.8 -2.5mm) marca uni – POSCA</t>
+        </is>
+      </c>
+      <c r="C1661" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>Agenda Hello Kitty 2026 con espiral doble, con elástico  dorado, tamaño 20 x 14 cm Marca Mooving</t>
+        </is>
+      </c>
+      <c r="C1662" t="n">
+        <v>365</v>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 5mm Tamaño Carta Color Celeste Pastel Marca ABC</t>
+        </is>
+      </c>
+      <c r="C1663" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 5mm Tamaño Carta Color Naranja Pastel Marca ABC</t>
+        </is>
+      </c>
+      <c r="C1664" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 5mm Tamaño Carta Color Rosa Pastel Marca ABC</t>
+        </is>
+      </c>
+      <c r="C1665" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 5mm Tamaño Carta Color Amarillo Pastel Marca ABC</t>
+        </is>
+      </c>
+      <c r="C1666" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 5mm Tamaño Carta Color Lila Pastel Marca ABC</t>
+        </is>
+      </c>
+      <c r="C1667" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>Cuaderno Espiral Cuadriculado 5mm Tamaño Carta Color Turqueza Pastel  Marca ABC</t>
+        </is>
+      </c>
+      <c r="C1668" t="n">
+        <v>25</v>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>Libreta Doble Anillo Horizontal Samrt Highclass  Hip Hip Hoorayl Tamaño 14.50 x 18 cm</t>
+        </is>
+      </c>
+      <c r="C1669" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>Cuaderno de Espiral Ancho Disco Port Ring Cuadriculado A5 Tamaño 18 x 21 cm Emotion Marca Online</t>
+        </is>
+      </c>
+      <c r="C1670" t="n">
+        <v>57</v>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>Cuaderno de Espiral Ancho Disco Port Cuadriculado A5 Tamaño 18 x 21 cm Your Only Limit is your Mind Marca Online</t>
+        </is>
+      </c>
+      <c r="C1671" t="n">
+        <v>57</v>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>Cuaderno de Espiral Ancho Disco Port Cuadriculado A5 Tamaño 18 x 21 cm Your are  every Thing  Marca Online</t>
+        </is>
+      </c>
+      <c r="C1672" t="n">
+        <v>57</v>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>Resaltador Textliner 46 Metálico Glamour Oro Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1673" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>Resaltador Textliner 46 Metálico Perlado Rosa Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1674" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>Resaltador Textliner 46 Metálico Shiny Plateado Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1675" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>Resaltador Textliner 46 Metálico Brilliant Ruby Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1676" t="n">
+        <v>17</v>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>Rotuladores Grip Finepen 5 Colores Básicos Faber-Castell</t>
+        </is>
+      </c>
+      <c r="C1677" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>Resaltador Metálico 4 Unidades en cajita de cartón Faber-Castell</t>
+        </is>
+      </c>
+      <c r="C1678" t="n">
+        <v>60</v>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>Marcadores Super Tips 10 colores Crayola</t>
+        </is>
+      </c>
+      <c r="C1679" t="n">
+        <v>66</v>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>Sacapuntas o Tajador con Depósito Diseño Croc Croc Signal Color Verde Maped</t>
+        </is>
+      </c>
+      <c r="C1680" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>Sacapuntas o Tajador con Depósito Diseño Croc Croc Signal Color Fuscia Maped</t>
+        </is>
+      </c>
+      <c r="C1681" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>Sacapuntas o Tajador con Depósito Diseño Croc Croc Signal Color Azul Maped</t>
+        </is>
+      </c>
+      <c r="C1682" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>Crayones Jumbo Cremosos 6 Unidades Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1683" t="n">
+        <v>29</v>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>Libreria Brasil</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>Marcadores lavables extra Jumbo 6 Unidades Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1684" t="n">
+        <v>39</v>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>Resaltador Stabilo Boss 70</t>
+        </is>
+      </c>
+      <c r="C1685" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>Resaltador Stabilo Swing Cool Pastel 275</t>
+        </is>
+      </c>
+      <c r="C1686" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>Marcador Permanente Multimark 54E Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1687" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>Marcador para Pizarra Monami</t>
+        </is>
+      </c>
+      <c r="C1688" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>Marcador Resaltador 49 Faber Castell</t>
+        </is>
+      </c>
+      <c r="C1689" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>Pincel Plano Serie 815 Chato Largo Tigre</t>
+        </is>
+      </c>
+      <c r="C1690" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>Boligrafo Bic Round Stick</t>
+        </is>
+      </c>
+      <c r="C1691" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>Pegamento en barra UHU STIC 40 grs.</t>
+        </is>
+      </c>
+      <c r="C1692" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>Papel Crepe Normal (sin brillo)</t>
+        </is>
+      </c>
+      <c r="C1693" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>Bolígrafo Pilot BP-S Fine</t>
+        </is>
+      </c>
+      <c r="C1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>Corrector en cinta 5mm x 8mts 948 Sabonis</t>
+        </is>
+      </c>
+      <c r="C1695" t="n">
+        <v>19</v>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>Materiales BO</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>Micropunta Stabilo Point 88</t>
+        </is>
+      </c>
+      <c r="C1696" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
